--- a/runtime.dat/Reaction/Reactions.xlsx
+++ b/runtime.dat/Reaction/Reactions.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Euler-SYCL\runtime.dat\Reaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\XFLUIDS\runtime.dat\Reaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEECDB3-4D6B-47B6-A486-301283F502D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641575A-BE5B-4103-9AD1-0D6CD0F755E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2O_18_Reaction" sheetId="4" r:id="rId1"/>
     <sheet name="H2O_19_Reaction" sheetId="1" r:id="rId2"/>
     <sheet name="H2O_21_Reaction" sheetId="2" r:id="rId3"/>
     <sheet name="H2O_23_Reaction" sheetId="3" r:id="rId4"/>
+    <sheet name="H2O-N2_19_Reaction" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t xml:space="preserve">H2    </t>
   </si>
@@ -159,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +317,23 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -745,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +785,27 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -787,30 +826,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1124,11 +1163,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5977D6-625A-4B51-AC0B-2BFDB941363F}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B64" sqref="B64:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1136,7 +1175,7 @@
     <col min="4" max="9" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1168,7 +1207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.2" customHeight="1">
+    <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1200,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.2" customHeight="1">
+    <row r="3" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -1232,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1261,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1290,12 +1329,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1327,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1359,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1391,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1423,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1455,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1487,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1519,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1551,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1583,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1615,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1647,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -1679,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1711,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -1743,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1775,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -1807,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -1839,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1871,12 +1910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -1908,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -1940,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -1972,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -2004,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -2036,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -2068,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2100,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -2132,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -2164,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -2196,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -2228,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -2260,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -2292,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -2324,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -2356,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -2388,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -2420,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -2452,12 +2491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -2489,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -2521,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -2553,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -2585,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>3.3</v>
       </c>
@@ -2617,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -2649,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -2681,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -2713,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -2745,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -2777,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -2809,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -2841,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -2873,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -2905,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -2937,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -2969,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -3001,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -3033,12 +3072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>17000000000000</v>
       </c>
@@ -3049,7 +3088,7 @@
         <v>47780</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>1170000000</v>
       </c>
@@ -3060,7 +3099,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>5.13E+16</v>
       </c>
@@ -3071,7 +3110,7 @@
         <v>16507</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>18000000000</v>
       </c>
@@ -3082,7 +3121,7 @@
         <v>8826</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2.1E+18</v>
       </c>
@@ -3093,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>6.7E+19</v>
       </c>
@@ -3104,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>50000000000000</v>
       </c>
@@ -3115,7 +3154,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>250000000000000</v>
       </c>
@@ -3126,7 +3165,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>48000000000000</v>
       </c>
@@ -3137,7 +3176,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>600000000</v>
       </c>
@@ -3148,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2230000000000</v>
       </c>
@@ -3159,7 +3198,7 @@
         <v>92600</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>185000000000</v>
       </c>
@@ -3170,7 +3209,7 @@
         <v>95560</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>7.4999999999999999E+23</v>
       </c>
@@ -3181,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>25000000000000</v>
       </c>
@@ -3192,7 +3231,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2000000000000</v>
       </c>
@@ -3203,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1.3E+17</v>
       </c>
@@ -3214,7 +3253,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1600000000000</v>
       </c>
@@ -3225,7 +3264,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>10000000000000</v>
       </c>
@@ -3250,13 +3289,13 @@
       <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3317,12 +3356,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3354,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3386,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3418,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3450,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3482,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3514,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3546,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3578,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3610,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3642,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3674,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3706,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3738,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3770,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3802,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3834,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3866,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3898,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3930,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3962,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3994,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4026,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4058,12 +4097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4095,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4127,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4159,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4191,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4223,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -4255,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4287,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4319,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4351,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -4383,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4415,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4447,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -4479,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -4511,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -4543,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -4575,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4607,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -4639,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -4671,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4703,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -4735,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -4767,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -4799,12 +4838,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4836,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -4868,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -4900,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -4932,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.5</v>
       </c>
@@ -4964,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.5</v>
       </c>
@@ -4996,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.5</v>
       </c>
@@ -5028,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.73</v>
       </c>
@@ -5060,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.3</v>
       </c>
@@ -5092,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.3</v>
       </c>
@@ -5124,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -5156,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -5188,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -5220,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -5252,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -5284,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -5316,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2.5</v>
       </c>
@@ -5348,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.5</v>
       </c>
@@ -5380,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -5412,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -5444,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -5476,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -5508,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -5540,12 +5579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>191000000000000</v>
       </c>
@@ -5556,7 +5595,7 @@
         <v>16440</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>50800</v>
       </c>
@@ -5570,7 +5609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>216000000</v>
       </c>
@@ -5584,7 +5623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2970000</v>
       </c>
@@ -5595,7 +5634,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>4.57E+19</v>
       </c>
@@ -5606,7 +5645,7 @@
         <v>105100</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>6170000000000000</v>
       </c>
@@ -5617,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4.72E+18</v>
       </c>
@@ -5628,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>4.4999999999999998E+22</v>
       </c>
@@ -5639,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3.48E+16</v>
       </c>
@@ -5650,7 +5689,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1480000000000</v>
       </c>
@@ -5664,7 +5703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>16600000000000</v>
       </c>
@@ -5678,7 +5717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>70800000000000</v>
       </c>
@@ -5692,7 +5731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>32500000000000</v>
       </c>
@@ -5706,7 +5745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>28900000000000</v>
       </c>
@@ -5720,7 +5759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>420000000000000</v>
       </c>
@@ -5731,7 +5770,7 @@
         <v>11980</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>130000000000</v>
       </c>
@@ -5742,7 +5781,7 @@
         <v>-1629</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1.27E+17</v>
       </c>
@@ -5753,7 +5792,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>295000000000000</v>
       </c>
@@ -5764,7 +5803,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>24100000000000</v>
       </c>
@@ -5778,7 +5817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>60300000000000</v>
       </c>
@@ -5792,7 +5831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>9550000</v>
       </c>
@@ -5803,7 +5842,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1000000000000</v>
       </c>
@@ -5817,7 +5856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>580000000000000</v>
       </c>
@@ -5842,10 +5881,10 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I113"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -5853,7 +5892,7 @@
     <col min="4" max="9" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -5882,7 +5921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -5911,12 +5950,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -5945,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -5974,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -6003,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -6032,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -6061,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -6090,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -6119,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -6148,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -6177,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -6206,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -6235,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -6264,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -6293,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -6322,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -6351,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6380,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -6409,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -6438,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -6467,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -6496,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -6525,12 +6564,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -6559,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -6588,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -6617,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -6646,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -6675,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -6704,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -6733,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -6762,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -6791,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -6820,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -6849,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -6878,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -6907,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -6936,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -6965,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -6994,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -7023,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -7052,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -7081,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -7110,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -7139,12 +7178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -7173,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -7202,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -7231,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -7260,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2.5</v>
       </c>
@@ -7289,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2.5</v>
       </c>
@@ -7318,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2.5</v>
       </c>
@@ -7347,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>0.73</v>
       </c>
@@ -7376,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1.3</v>
       </c>
@@ -7405,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -7434,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -7463,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -7492,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -7521,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -7550,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -7579,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2.5</v>
       </c>
@@ -7608,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -7637,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -7666,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -7695,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -7724,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -7753,12 +7792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>191000000000000</v>
       </c>
@@ -7769,7 +7808,7 @@
         <v>16440</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>50800</v>
       </c>
@@ -7783,7 +7822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>216000000</v>
       </c>
@@ -7797,7 +7836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2970000</v>
       </c>
@@ -7808,7 +7847,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -7817,7 +7856,7 @@
       </c>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>31</v>
       </c>
@@ -7826,7 +7865,7 @@
       </c>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
@@ -7835,7 +7874,7 @@
       </c>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
@@ -7844,7 +7883,7 @@
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1480000000000</v>
       </c>
@@ -7858,7 +7897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>16600000000000</v>
       </c>
@@ -7872,7 +7911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>70800000000000</v>
       </c>
@@ -7883,7 +7922,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>32500000000000</v>
       </c>
@@ -7897,7 +7936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>28900000000000</v>
       </c>
@@ -7911,7 +7950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>34</v>
       </c>
@@ -7920,7 +7959,7 @@
       </c>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>35</v>
       </c>
@@ -7929,7 +7968,7 @@
       </c>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>295000000000000</v>
       </c>
@@ -7940,7 +7979,7 @@
         <v>48430</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>24100000000000</v>
       </c>
@@ -7954,7 +7993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>60300000000000</v>
       </c>
@@ -7968,7 +8007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>9550000</v>
       </c>
@@ -7979,7 +8018,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1000000000000</v>
       </c>
@@ -7993,7 +8032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>10700000000000</v>
       </c>
@@ -8007,12 +8046,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -8041,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -8070,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -8099,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -8128,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2.5</v>
       </c>
@@ -8157,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>2.5</v>
       </c>
@@ -8186,7 +8225,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2.5</v>
       </c>
@@ -8215,7 +8254,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>0.73</v>
       </c>
@@ -8244,7 +8283,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>1.3</v>
       </c>
@@ -8273,7 +8312,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>0</v>
       </c>
@@ -8302,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -8331,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>0</v>
       </c>
@@ -8360,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -8389,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -8418,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -8447,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>2.5</v>
       </c>
@@ -8476,7 +8515,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -8505,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -8534,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -8563,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -8592,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -8631,11 +8670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B76" sqref="B76:B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -8643,7 +8682,7 @@
     <col min="4" max="9" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8672,7 +8711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -8701,12 +8740,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -8735,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -8764,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -8793,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -8822,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -8851,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -8880,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -8909,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -8938,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -8967,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -8996,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -9025,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -9054,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -9083,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -9112,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -9141,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -9170,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -9199,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -9228,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -9257,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -9286,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -9315,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -9344,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -9373,12 +9412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -9407,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -9436,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -9465,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -9494,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -9523,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -9552,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -9581,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -9610,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -9639,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -9668,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -9697,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -9726,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -9755,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -9784,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -9813,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -9842,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -9871,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -9900,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -9929,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -9958,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -9987,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -10016,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -10045,12 +10084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -10079,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -10108,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -10137,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -10166,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2.5</v>
       </c>
@@ -10195,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2.5</v>
       </c>
@@ -10224,7 +10263,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2.5</v>
       </c>
@@ -10253,7 +10292,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0.73</v>
       </c>
@@ -10282,7 +10321,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1.3</v>
       </c>
@@ -10311,7 +10350,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1.3</v>
       </c>
@@ -10340,7 +10379,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -10369,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -10398,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -10427,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -10456,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -10485,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -10514,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2.5</v>
       </c>
@@ -10543,7 +10582,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2.5</v>
       </c>
@@ -10572,7 +10611,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -10601,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -10630,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -10659,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -10688,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -10717,12 +10756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>191000000000000</v>
       </c>
@@ -10733,7 +10772,7 @@
         <v>16440</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>50800</v>
       </c>
@@ -10747,7 +10786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>216000000</v>
       </c>
@@ -10761,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2970000</v>
       </c>
@@ -10772,7 +10811,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>37</v>
       </c>
@@ -10781,7 +10820,7 @@
       </c>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>38</v>
       </c>
@@ -10792,7 +10831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>39</v>
       </c>
@@ -10803,7 +10842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>40</v>
       </c>
@@ -10814,7 +10853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -10823,7 +10862,7 @@
       </c>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>1480000000000</v>
       </c>
@@ -10837,7 +10876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>16600000000000</v>
       </c>
@@ -10851,7 +10890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>70800000000000</v>
       </c>
@@ -10865,7 +10904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>32500000000000</v>
       </c>
@@ -10879,7 +10918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>28900000000000</v>
       </c>
@@ -10893,7 +10932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>420000000000000</v>
       </c>
@@ -10904,7 +10943,7 @@
         <v>11980</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>130000000000</v>
       </c>
@@ -10915,7 +10954,7 @@
         <v>-1629</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1.27E+17</v>
       </c>
@@ -10926,7 +10965,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>295000000000000</v>
       </c>
@@ -10937,7 +10976,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>24100000000000</v>
       </c>
@@ -10951,7 +10990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>60300000000000</v>
       </c>
@@ -10965,7 +11004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>9550000</v>
       </c>
@@ -10976,7 +11015,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>1000000000000</v>
       </c>
@@ -10990,7 +11029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>580000000000000</v>
       </c>
@@ -11001,6 +11040,2173 @@
         <v>9560</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD23AF9-4AAA-476C-A75B-6CE20E16E2E9}">
+  <dimension ref="A1:V84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="10.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="7" customWidth="1"/>
+    <col min="11" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="22" width="10.77734375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+    </row>
+    <row r="38" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>0</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+    </row>
+    <row r="39" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+    </row>
+    <row r="40" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>0</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>0</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>0</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>0</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>0</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>6</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>2</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>6</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>6</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>2</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9">
+        <v>6</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>0</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>0</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>0</v>
+      </c>
+      <c r="B56" s="9">
+        <v>0</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>0</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>0</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>0</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>0</v>
+      </c>
+      <c r="B60" s="9">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>0</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>1</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9">
+        <v>15</v>
+      </c>
+      <c r="I62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>1</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>100000000000</v>
+      </c>
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="13">
+        <v>56000</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>260000000000</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
+        <v>16800</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>18000000</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="13">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>22000000000</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>6300000000</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>2.2E+16</v>
+      </c>
+      <c r="B70" s="9">
+        <v>-2</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>640000000000</v>
+      </c>
+      <c r="B71" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>60000000000</v>
+      </c>
+      <c r="B72" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>2100000000</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>140000000000</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>10000000000</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1080</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>15000000000</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13">
+        <v>950</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>8000000000</v>
+      </c>
+      <c r="B77" s="9">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>2000000000</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>1400000000</v>
+      </c>
+      <c r="B79" s="13">
+        <v>0</v>
+      </c>
+      <c r="C79" s="13">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>14000000000</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13">
+        <v>6400</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>6100000000</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1430</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>120000000000000</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="13">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>60000000</v>
+      </c>
+      <c r="B83" s="13">
+        <v>0</v>
+      </c>
+      <c r="C83" s="13">
+        <v>-1800</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
         <v>13</v>
       </c>
     </row>
